--- a/survival_results/data/survival_data_with_baselines.xlsx
+++ b/survival_results/data/survival_data_with_baselines.xlsx
@@ -167,6 +167,9 @@
     <t xml:space="preserve">159</t>
   </si>
   <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sammy-21</t>
   </si>
   <si>
@@ -192,9 +195,6 @@
   </si>
   <si>
     <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown</t>
   </si>
   <si>
     <t xml:space="preserve">Mason-26</t>
@@ -664,7 +664,7 @@
         <v>44701</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>44701</v>
@@ -702,7 +702,7 @@
         <v>44510</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>44510</v>
@@ -740,7 +740,7 @@
         <v>44046</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>44046</v>
@@ -778,7 +778,7 @@
         <v>44051</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>44051</v>
@@ -816,7 +816,7 @@
         <v>44487</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>44487</v>
@@ -854,7 +854,7 @@
         <v>44113</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>44113</v>
@@ -892,7 +892,7 @@
         <v>44100</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>44100</v>
@@ -930,7 +930,7 @@
         <v>44090</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>44090</v>
@@ -968,7 +968,7 @@
         <v>44194</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>44194</v>
@@ -1006,7 +1006,7 @@
         <v>44631</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>44631</v>
@@ -1044,7 +1044,7 @@
         <v>44281</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>44281</v>
@@ -1082,7 +1082,7 @@
         <v>44854</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>44854</v>
@@ -1120,7 +1120,7 @@
         <v>44683</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>44683</v>
@@ -1158,7 +1158,7 @@
         <v>44441</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>44441</v>
@@ -1196,7 +1196,7 @@
         <v>44778</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>44778</v>
@@ -1219,30 +1219,30 @@
         <v>44608</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>44825</v>
+        <v>45358</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>44825</v>
+        <v>45358</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>44825</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1251,7 +1251,7 @@
         <v>44776</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>44952</v>
@@ -1272,7 +1272,7 @@
         <v>45169</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>45169</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1289,7 +1289,7 @@
         <v>44505</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>44652</v>
@@ -1310,7 +1310,7 @@
         <v>44811</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L19" s="1" t="n">
         <v>44811</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -1348,7 +1348,7 @@
         <v>44571</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>44571</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -1365,13 +1365,13 @@
         <v>44550</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44823</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>45225</v>
+        <v>45425</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
@@ -1383,18 +1383,18 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>45225</v>
+        <v>45425</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>45225</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1403,7 +1403,7 @@
         <v>44811</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44924</v>
@@ -1415,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>44949</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L22" s="1" t="n">
         <v>44949</v>
@@ -1462,7 +1462,7 @@
         <v>45064</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L23" s="1" t="n">
         <v>45064</v>
@@ -1500,7 +1500,7 @@
         <v>44885</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L24" s="1" t="n">
         <v>44885</v>
@@ -1523,7 +1523,7 @@
         <v>45076</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>45300</v>
+        <v>45422</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>45300</v>
+        <v>45422</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>45300</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="26">
@@ -1576,7 +1576,7 @@
         <v>45118</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L26" s="1" t="n">
         <v>45118</v>
@@ -1599,7 +1599,7 @@
         <v>45225</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>45278</v>
+        <v>45392</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -1611,13 +1611,13 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>45278</v>
+        <v>45392</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>45278</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="28">
@@ -1637,7 +1637,7 @@
         <v>45217</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>45281</v>
+        <v>45398</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
@@ -1649,13 +1649,13 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>45281</v>
+        <v>45398</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>45281</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="29">
@@ -1690,7 +1690,7 @@
         <v>45210</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L29" s="1" t="n">
         <v>45210</v>
@@ -1713,25 +1713,25 @@
         <v>45222</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>45307</v>
+        <v>45315</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>45307</v>
+        <v>45315</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>45307</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="31">
@@ -1750,7 +1750,9 @@
       <c r="E31" s="1" t="n">
         <v>45296</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="n">
+        <v>45377</v>
+      </c>
       <c r="G31" t="s">
         <v>15</v>
       </c>
@@ -1760,12 +1762,14 @@
       <c r="I31" t="b">
         <v>1</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="n">
+        <v>45377</v>
+      </c>
       <c r="K31" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>45310</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="32">
@@ -1784,7 +1788,9 @@
       <c r="E32" s="1" t="n">
         <v>45308</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="n">
+        <v>45413</v>
+      </c>
       <c r="G32" t="s">
         <v>15</v>
       </c>
@@ -1794,12 +1800,14 @@
       <c r="I32" t="b">
         <v>1</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="n">
+        <v>45413</v>
+      </c>
       <c r="K32" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>45310</v>
+        <v>45413</v>
       </c>
     </row>
   </sheetData>
